--- a/Data/Ex2.xlsx
+++ b/Data/Ex2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Colab Notebooks\Python\Python Projects\truss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Github\truss_solver\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109D4D4-2DA4-4677-B1B7-9832415EA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17004534-9ABF-4930-A2F4-7B11B9F7A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element" sheetId="1" r:id="rId1"/>
-    <sheet name="Node" sheetId="2" r:id="rId2"/>
+    <sheet name="Joint" sheetId="2" r:id="rId2"/>
     <sheet name="MD_Solid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -63,9 +63,6 @@
     <t>End</t>
   </si>
   <si>
-    <t>Node</t>
-  </si>
-  <si>
     <t>RX</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Joint</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -576,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -592,55 +592,55 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AA28D2-1943-4E77-B002-B77B0083F7E8}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -664,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -673,16 +673,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -780,7 +780,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>0.8</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>1.2</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>1.2</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>1.6</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>1.6</v>
@@ -903,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C2F2DD-D2C5-4021-BAB0-99E8190ABBDA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
